--- a/Data/Original_Data/A&M_dataset_DICTIONARY.xlsx
+++ b/Data/Original_Data/A&M_dataset_DICTIONARY.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuire\PycharmProjects\IronDeficiency\Data\Original_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EC90B4-ED98-49C4-A79E-AAAC8955BC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16F7562-B69F-492D-A8AC-4F0DCA627ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{0B332FA3-0493-4E6E-8C24-E6AD7B7EBA00}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{0B332FA3-0493-4E6E-8C24-E6AD7B7EBA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset_Dictionary" sheetId="1" r:id="rId1"/>
     <sheet name="Scores" sheetId="2" r:id="rId2"/>
+    <sheet name="Residual_variables" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="998">
   <si>
     <t>ElementName</t>
   </si>
@@ -1294,6 +1295,12 @@
   </si>
   <si>
     <t>0=NR (insufficient information); 1=Performance is consistent with ability;3=Decrease in school performance and/or ability to concentrate; 5=Major interference with performance in most subjects; 7= No motivation to perform</t>
+  </si>
+  <si>
+    <t>CDRSR_schoolwork_notes</t>
+  </si>
+  <si>
+    <t>Notes on impaired schoolwork:</t>
   </si>
   <si>
     <t>CDRSR_fun</t>
@@ -2406,12 +2413,654 @@
   <si>
     <t>Originally reverse coded</t>
   </si>
+  <si>
+    <t>PARS_total</t>
+  </si>
+  <si>
+    <t>CPT_C_R</t>
+  </si>
+  <si>
+    <t>CPT_HITS_R</t>
+  </si>
+  <si>
+    <t>CPT_DPR_R</t>
+  </si>
+  <si>
+    <t>CPT_OMI_R</t>
+  </si>
+  <si>
+    <t>CPT_COM_R</t>
+  </si>
+  <si>
+    <t>CPT_PRS_R</t>
+  </si>
+  <si>
+    <t>CPT_HRT_R</t>
+  </si>
+  <si>
+    <t>CPT_HRTSD_R</t>
+  </si>
+  <si>
+    <t>CPT_VAR_R</t>
+  </si>
+  <si>
+    <t>CPT_BLKCH_R</t>
+  </si>
+  <si>
+    <t>CPT_ISICH_R</t>
+  </si>
+  <si>
+    <t>QSM_r_Pu_mean</t>
+  </si>
+  <si>
+    <t>f_iron_r_Pu_mean</t>
+  </si>
+  <si>
+    <t>f_myelin_r_Pu_mean</t>
+  </si>
+  <si>
+    <t>iron_r_Pu_mean</t>
+  </si>
+  <si>
+    <t>myelin_r_Pu_mean</t>
+  </si>
+  <si>
+    <t>QSM_l_Pu_mean</t>
+  </si>
+  <si>
+    <t>f_iron_l_Pu_mean</t>
+  </si>
+  <si>
+    <t>f_myelin_l_Pu_mean</t>
+  </si>
+  <si>
+    <t>iron_l_Pu_mean</t>
+  </si>
+  <si>
+    <t>myelin_l_Pu_mean</t>
+  </si>
+  <si>
+    <t>QSM_r_Cd_mean</t>
+  </si>
+  <si>
+    <t>f_iron_r_Cd_mean</t>
+  </si>
+  <si>
+    <t>f_myelin_r_Cd_mean</t>
+  </si>
+  <si>
+    <t>iron_r_Cd_mean</t>
+  </si>
+  <si>
+    <t>myelin_r_Cd_mean</t>
+  </si>
+  <si>
+    <t>QSM_l_Cd_mean</t>
+  </si>
+  <si>
+    <t>f_iron_l_Cd_mean</t>
+  </si>
+  <si>
+    <t>f_myelin_l_Cd_mean</t>
+  </si>
+  <si>
+    <t>iron_l_Cd_mean</t>
+  </si>
+  <si>
+    <t>myelin_l_Cd_mean</t>
+  </si>
+  <si>
+    <t>QSM_r_GP_mean</t>
+  </si>
+  <si>
+    <t>f_iron_r_GP_mean</t>
+  </si>
+  <si>
+    <t>f_myelin_r_GP_mean</t>
+  </si>
+  <si>
+    <t>iron_r_GP_mean</t>
+  </si>
+  <si>
+    <t>myelin_r_GP_mean</t>
+  </si>
+  <si>
+    <t>QSM_l_GP_mean</t>
+  </si>
+  <si>
+    <t>f_iron_l_GP_mean</t>
+  </si>
+  <si>
+    <t>f_myelin_l_GP_mean</t>
+  </si>
+  <si>
+    <t>iron_l_GP_mean</t>
+  </si>
+  <si>
+    <t>myelin_l_GP_mean</t>
+  </si>
+  <si>
+    <t>WASI_Vocab_Raw</t>
+  </si>
+  <si>
+    <t>WASI_Matrix_Raw</t>
+  </si>
+  <si>
+    <t>Stroop_WordColor_WordRead</t>
+  </si>
+  <si>
+    <t>Stroop_WordColor_ColorRecognized</t>
+  </si>
+  <si>
+    <t>Stroop_WordColor_InkRecognized</t>
+  </si>
+  <si>
+    <t>Trail_PartA_time</t>
+  </si>
+  <si>
+    <t>Trail_PartA_error_seq</t>
+  </si>
+  <si>
+    <t>TrailsB_Time</t>
+  </si>
+  <si>
+    <t>Trail_PartB_error_seq</t>
+  </si>
+  <si>
+    <t>Trail_PartB_error_set</t>
+  </si>
+  <si>
+    <t>Pegboard_Handedness</t>
+  </si>
+  <si>
+    <t>Pegboard_RH_Time</t>
+  </si>
+  <si>
+    <t>Pegboard_RH_Dropped</t>
+  </si>
+  <si>
+    <t>Pegboard_RH_Total_Correct</t>
+  </si>
+  <si>
+    <t>Pegboard_LH_Time</t>
+  </si>
+  <si>
+    <t>Pegboard_LH_Dropped</t>
+  </si>
+  <si>
+    <t>Pegboard_LH_Total_Correct</t>
+  </si>
+  <si>
+    <t>RAVLT_ListA_Correct_Recognition</t>
+  </si>
+  <si>
+    <t>RAVLT_ListA_Intrusions_ListB</t>
+  </si>
+  <si>
+    <t>RAVLT_ListA_Semantic_Associates</t>
+  </si>
+  <si>
+    <t>RAVLT_ListB_Semantic_Associates</t>
+  </si>
+  <si>
+    <t>RAVLT_ListA_Phonemic_Associates</t>
+  </si>
+  <si>
+    <t>RAVLT_ListB_Phonemic_Associates</t>
+  </si>
+  <si>
+    <t>NEURO_DIGIT_ForwardScore</t>
+  </si>
+  <si>
+    <t>NEURO_DIGIT_BackwardScore</t>
+  </si>
+  <si>
+    <t>NEURO_DIGIT_SequencingScore</t>
+  </si>
+  <si>
+    <t>NEURO_DDT_kvalue</t>
+  </si>
+  <si>
+    <t>Hemoccue_Hb</t>
+  </si>
+  <si>
+    <t>RAW Measurement Variable Name</t>
+  </si>
+  <si>
+    <t>CBCL_AnxDep_residual</t>
+  </si>
+  <si>
+    <t>CBCL_WthdrDep_residual</t>
+  </si>
+  <si>
+    <t>CBCL_SomaComplt_residual</t>
+  </si>
+  <si>
+    <t>CBCL_SocProbs_residual</t>
+  </si>
+  <si>
+    <t>CBCL_ThtProbs_residual</t>
+  </si>
+  <si>
+    <t>CBCL_AttenProbs_residual</t>
+  </si>
+  <si>
+    <t>CBCL_RuleBreak_residual</t>
+  </si>
+  <si>
+    <t>CBCL_AgresBehav_residual</t>
+  </si>
+  <si>
+    <t>CBCL_internal_residual</t>
+  </si>
+  <si>
+    <t>CBCL_external_residual</t>
+  </si>
+  <si>
+    <t>CBCL_totalProb_residual</t>
+  </si>
+  <si>
+    <t>CBCL_DSM_DepProb_residual</t>
+  </si>
+  <si>
+    <t>CBCL_DSM_AnxProb_residual</t>
+  </si>
+  <si>
+    <t>CBCL_DSM_SomaProb_residual</t>
+  </si>
+  <si>
+    <t>CBCL_DSM_AttenDef_residual</t>
+  </si>
+  <si>
+    <t>CBCL_DSM_OppDefProb_residual</t>
+  </si>
+  <si>
+    <t>CBCL_DSM_CondProb_residual</t>
+  </si>
+  <si>
+    <t>CBCL_Scale_SluggCog_residual</t>
+  </si>
+  <si>
+    <t>CBCL_Scale_ObsesComp_residual</t>
+  </si>
+  <si>
+    <t>CBCL_Scale_StressProb_residual</t>
+  </si>
+  <si>
+    <t>CBCL_Activities_residual</t>
+  </si>
+  <si>
+    <t>CBCL_Social_residual</t>
+  </si>
+  <si>
+    <t>CBCL_edu_residual</t>
+  </si>
+  <si>
+    <t>CBCL_TotalComp_residual</t>
+  </si>
+  <si>
+    <t>SCARED_C_Total_residual</t>
+  </si>
+  <si>
+    <t>SCARED_C_GAD_residual</t>
+  </si>
+  <si>
+    <t>SCARED_C_PanicD_residual</t>
+  </si>
+  <si>
+    <t>SCARED_C_SocialPhob_residual</t>
+  </si>
+  <si>
+    <t>SCARED_C_SchoolPhob_residual</t>
+  </si>
+  <si>
+    <t>SCARED_C_SeparationAnx_residual</t>
+  </si>
+  <si>
+    <t>SCARED_P_Total_residual</t>
+  </si>
+  <si>
+    <t>SCARED_P_GAD_residual</t>
+  </si>
+  <si>
+    <t>SCARED_P_PanicD_residual</t>
+  </si>
+  <si>
+    <t>SCARED_P_SocialPhob_residual</t>
+  </si>
+  <si>
+    <t>SCARED_P_SchoolPhob_residual</t>
+  </si>
+  <si>
+    <t>SCARED_P_SeparationAnx_residual</t>
+  </si>
+  <si>
+    <t>CESD_C_Somatic_residual</t>
+  </si>
+  <si>
+    <t>CESD_C_Depressed_residual</t>
+  </si>
+  <si>
+    <t>CESD_C_Positive_residual</t>
+  </si>
+  <si>
+    <t>CESD_C_Interpersonal_residual</t>
+  </si>
+  <si>
+    <t>CESD_C_Score_residual</t>
+  </si>
+  <si>
+    <t>CDRSR_SCORE_residual</t>
+  </si>
+  <si>
+    <t>PARS_total_residual</t>
+  </si>
+  <si>
+    <t>CPT_C_R_residual</t>
+  </si>
+  <si>
+    <t>CPT_HITS_R_residual</t>
+  </si>
+  <si>
+    <t>CPT_DPR_R_residual</t>
+  </si>
+  <si>
+    <t>CPT_OMI_R_residual</t>
+  </si>
+  <si>
+    <t>CPT_COM_R_residual</t>
+  </si>
+  <si>
+    <t>CPT_PRS_R_residual</t>
+  </si>
+  <si>
+    <t>CPT_HRT_R_residual</t>
+  </si>
+  <si>
+    <t>CPT_HRTSD_R_residual</t>
+  </si>
+  <si>
+    <t>CPT_VAR_R_residual</t>
+  </si>
+  <si>
+    <t>CPT_BLKCH_R_residual</t>
+  </si>
+  <si>
+    <t>CPT_ISICH_R_residual</t>
+  </si>
+  <si>
+    <t>Ferritin_ngperml_residual</t>
+  </si>
+  <si>
+    <t>QSM_r_Pu_mean_residual</t>
+  </si>
+  <si>
+    <t>f_iron_r_Pu_mean_residual</t>
+  </si>
+  <si>
+    <t>f_myelin_r_Pu_mean_residual</t>
+  </si>
+  <si>
+    <t>iron_r_Pu_mean_residual</t>
+  </si>
+  <si>
+    <t>myelin_r_Pu_mean_residual</t>
+  </si>
+  <si>
+    <t>QSM_l_Pu_mean_residual</t>
+  </si>
+  <si>
+    <t>f_iron_l_Pu_mean_residual</t>
+  </si>
+  <si>
+    <t>f_myelin_l_Pu_mean_residual</t>
+  </si>
+  <si>
+    <t>iron_l_Pu_mean_residual</t>
+  </si>
+  <si>
+    <t>myelin_l_Pu_mean_residual</t>
+  </si>
+  <si>
+    <t>QSM_r_Cd_mean_residual</t>
+  </si>
+  <si>
+    <t>f_iron_r_Cd_mean_residual</t>
+  </si>
+  <si>
+    <t>f_myelin_r_Cd_mean_residual</t>
+  </si>
+  <si>
+    <t>iron_r_Cd_mean_residual</t>
+  </si>
+  <si>
+    <t>myelin_r_Cd_mean_residual</t>
+  </si>
+  <si>
+    <t>QSM_l_Cd_mean_residual</t>
+  </si>
+  <si>
+    <t>f_iron_l_Cd_mean_residual</t>
+  </si>
+  <si>
+    <t>f_myelin_l_Cd_mean_residual</t>
+  </si>
+  <si>
+    <t>iron_l_Cd_mean_residual</t>
+  </si>
+  <si>
+    <t>myelin_l_Cd_mean_residual</t>
+  </si>
+  <si>
+    <t>QSM_r_GP_mean_residual</t>
+  </si>
+  <si>
+    <t>f_iron_r_GP_mean_residual</t>
+  </si>
+  <si>
+    <t>f_myelin_r_GP_mean_residual</t>
+  </si>
+  <si>
+    <t>iron_r_GP_mean_residual</t>
+  </si>
+  <si>
+    <t>myelin_r_GP_mean_residual</t>
+  </si>
+  <si>
+    <t>QSM_l_GP_mean_residual</t>
+  </si>
+  <si>
+    <t>f_iron_l_GP_mean_residual</t>
+  </si>
+  <si>
+    <t>f_myelin_l_GP_mean_residual</t>
+  </si>
+  <si>
+    <t>iron_l_GP_mean_residual</t>
+  </si>
+  <si>
+    <t>myelin_l_GP_mean_residual</t>
+  </si>
+  <si>
+    <t>WASI_Vocab_Raw_residual</t>
+  </si>
+  <si>
+    <t>WASI_Matrix_Raw_residual</t>
+  </si>
+  <si>
+    <t>Stroop_WordColor_Read_residual</t>
+  </si>
+  <si>
+    <t>Stroop_WordColor_ColRec_residual</t>
+  </si>
+  <si>
+    <t>Stroop_WordColor_InkRec_residual</t>
+  </si>
+  <si>
+    <t>Trail_PartA_time_residual</t>
+  </si>
+  <si>
+    <t>Trail_PartA_error_seq_residual</t>
+  </si>
+  <si>
+    <t>TrailsB_Time_residual</t>
+  </si>
+  <si>
+    <t>Trail_PartB_error_seq_residual</t>
+  </si>
+  <si>
+    <t>Trail_PartB_error_set_residual</t>
+  </si>
+  <si>
+    <t>Pegboard_Handedness_residual</t>
+  </si>
+  <si>
+    <t>Pegboard_RH_Time_residual</t>
+  </si>
+  <si>
+    <t>Pegboard_RH_Dropped_residual</t>
+  </si>
+  <si>
+    <t>Pegboard_RH_Total_Corr_residual</t>
+  </si>
+  <si>
+    <t>Pegboard_LH_Time_residual</t>
+  </si>
+  <si>
+    <t>Pegboard_LH_Dropped_residual</t>
+  </si>
+  <si>
+    <t>Pegboard_LH_Total_Corr_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_ListA_Correct_Rec_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_ListA_Intru_ListB_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_ListA_Sem_Assoc_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_ListB_Sem_Assoc_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_ListA_Phon_Assoc_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_ListB_Phon_Assoc_residual</t>
+  </si>
+  <si>
+    <t>NEURO_DIGIT_Forward_residual</t>
+  </si>
+  <si>
+    <t>NEURO_DIGIT_Backward_residual</t>
+  </si>
+  <si>
+    <t>NEURO_DIGIT_Sequencing_residual</t>
+  </si>
+  <si>
+    <t>NEURO_DDT_kvalue_residual</t>
+  </si>
+  <si>
+    <t>Hemoccue_Hb_residual</t>
+  </si>
+  <si>
+    <t>Corresponding Residual Variable</t>
+  </si>
+  <si>
+    <t>WASI_Vocab_DataQuality</t>
+  </si>
+  <si>
+    <t>WASI_Matrix_DataQuality</t>
+  </si>
+  <si>
+    <t>CPT_DataQuality</t>
+  </si>
+  <si>
+    <t>DDT_DataQuality</t>
+  </si>
+  <si>
+    <t>DigitSpan_fwd_DataQuality</t>
+  </si>
+  <si>
+    <t>DigitSpan_bwd_DataQuality</t>
+  </si>
+  <si>
+    <t>DigitSpan_seq_DataQuality</t>
+  </si>
+  <si>
+    <t>RAVLT_DataQuality</t>
+  </si>
+  <si>
+    <t>Stroop_DataQuality</t>
+  </si>
+  <si>
+    <t>Trails_A_DataQuality</t>
+  </si>
+  <si>
+    <t>Trails_B_DataQuality</t>
+  </si>
+  <si>
+    <t>Pegboard_RH_DataQuality</t>
+  </si>
+  <si>
+    <t>Pegboard_LH_DataQuality</t>
+  </si>
+  <si>
+    <t>WASI Vocab Data Quality</t>
+  </si>
+  <si>
+    <t>WASI Matrix Data Quality</t>
+  </si>
+  <si>
+    <t>CPT Data Quality</t>
+  </si>
+  <si>
+    <t>DDT Data Quality</t>
+  </si>
+  <si>
+    <t>DigitSpan forward Data Quality</t>
+  </si>
+  <si>
+    <t>DigitSpan backward Data Quality</t>
+  </si>
+  <si>
+    <t>DigitSpan sequencing Data Quality</t>
+  </si>
+  <si>
+    <t>RAVLT Data Quality</t>
+  </si>
+  <si>
+    <t>Stroop Data Quality</t>
+  </si>
+  <si>
+    <t>Trails A Data Quality</t>
+  </si>
+  <si>
+    <t>Trails B Data Quality</t>
+  </si>
+  <si>
+    <t>Pegboard Right Hand Data Quality</t>
+  </si>
+  <si>
+    <t>Pegboard Left Hand Data Quality</t>
+  </si>
+  <si>
+    <t>0-Not Administered; 1-Administered, No issues; 7-Administered, not valid; 8-Administered with issues; 9-Could not complete;</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2425,8 +3074,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2439,8 +3107,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2448,13 +3122,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2769,17 +3458,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354BCA59-EB3E-4CCE-A235-F8D5EE799E10}">
-  <dimension ref="A1:E277"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="C258" sqref="C258"/>
+    <sheetView topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="C273" sqref="C273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="32.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.15625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.68359375" customWidth="1"/>
-    <col min="3" max="3" width="44.68359375" customWidth="1"/>
+    <col min="3" max="3" width="60.15625" customWidth="1"/>
     <col min="4" max="4" width="16.26171875" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
   </cols>
@@ -2802,7 +3491,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -2810,7 +3499,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
@@ -2818,7 +3507,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -2832,7 +3521,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -2843,7 +3532,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
@@ -2852,13 +3541,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -2866,13 +3555,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C8" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D8" t="s">
         <v>17</v>
@@ -2880,13 +3569,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B9" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C9" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -2894,13 +3583,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B10" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C10" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -2908,13 +3597,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B11" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C11" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -2922,13 +3611,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B12" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C12" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -2936,13 +3625,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B13" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C13" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -2950,13 +3639,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B14" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C14" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -2964,13 +3653,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B15" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C15" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2978,13 +3667,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B16" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C16" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -2992,13 +3681,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B17" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C17" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -3006,13 +3695,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B18" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C18" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -3020,13 +3709,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B19" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C19" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -3034,13 +3723,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B20" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C20" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -3048,13 +3737,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B21" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="C21" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -3062,13 +3751,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B22" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="C22" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -3076,13 +3765,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B23" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C23" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -3090,13 +3779,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B24" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C24" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -3104,13 +3793,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B25" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C25" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D25" t="s">
         <v>17</v>
@@ -3118,13 +3807,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B26" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C26" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -3132,13 +3821,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B27" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C27" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -3146,13 +3835,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B28" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C28" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -3160,13 +3849,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B29" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C29" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -3174,13 +3863,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B30" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C30" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -3188,13 +3877,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B31" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C31" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -3202,13 +3891,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B32" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C32" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -3216,13 +3905,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B33" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C33" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -3230,13 +3919,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B34" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C34" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D34" t="s">
         <v>17</v>
@@ -3244,13 +3933,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B35" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="C35" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -3258,13 +3947,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B36" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="C36" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D36" t="s">
         <v>17</v>
@@ -3272,13 +3961,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B37" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C37" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -3286,13 +3975,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B38" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="C38" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -3300,13 +3989,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B39" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C39" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -3314,13 +4003,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B40" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C40" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -3328,13 +4017,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B41" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C41" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -3342,13 +4031,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B42" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C42" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -3356,13 +4045,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B43" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C43" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -3370,13 +4059,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B44" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C44" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D44" t="s">
         <v>17</v>
@@ -3384,13 +4073,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B45" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C45" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D45" t="s">
         <v>17</v>
@@ -3398,13 +4087,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B46" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C46" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D46" t="s">
         <v>17</v>
@@ -3412,13 +4101,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B47" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C47" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -3426,13 +4115,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B48" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C48" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D48" t="s">
         <v>17</v>
@@ -3440,13 +4129,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B49" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C49" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D49" t="s">
         <v>17</v>
@@ -3454,13 +4143,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B50" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C50" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D50" t="s">
         <v>17</v>
@@ -3468,13 +4157,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B51" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C51" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
@@ -3482,13 +4171,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B52" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="C52" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
@@ -3496,13 +4185,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B53" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C53" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
@@ -3510,13 +4199,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B54" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C54" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
@@ -3524,13 +4213,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B55" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C55" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
@@ -3538,13 +4227,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B56" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="C56" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D56" t="s">
         <v>17</v>
@@ -3552,13 +4241,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B57" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C57" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D57" t="s">
         <v>17</v>
@@ -3566,13 +4255,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B58" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C58" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
@@ -3580,13 +4269,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B59" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C59" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -3594,13 +4283,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B60" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C60" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
@@ -3608,13 +4297,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B61" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C61" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
@@ -3622,13 +4311,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B62" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C62" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -3636,13 +4325,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B63" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C63" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -3650,13 +4339,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B64" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C64" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -3664,13 +4353,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B65" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C65" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>
@@ -3678,13 +4367,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B66" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C66" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D66" t="s">
         <v>17</v>
@@ -3692,13 +4381,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B67" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="C67" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
@@ -3706,13 +4395,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B68" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C68" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D68" t="s">
         <v>17</v>
@@ -3720,13 +4409,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B69" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C69" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D69" t="s">
         <v>17</v>
@@ -3734,13 +4423,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B70" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C70" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D70" t="s">
         <v>17</v>
@@ -3748,13 +4437,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B71" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C71" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
@@ -3762,13 +4451,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B72" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C72" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D72" t="s">
         <v>17</v>
@@ -3776,13 +4465,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B73" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C73" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D73" t="s">
         <v>17</v>
@@ -3790,13 +4479,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B74" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="C74" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D74" t="s">
         <v>17</v>
@@ -3804,13 +4493,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B75" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="C75" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
@@ -3818,13 +4507,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B76" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C76" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D76" t="s">
         <v>17</v>
@@ -3832,13 +4521,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B77" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="C77" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
@@ -3846,13 +4535,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B78" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C78" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D78" t="s">
         <v>17</v>
@@ -3860,13 +4549,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B79" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C79" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
@@ -3874,13 +4563,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B80" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C80" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D80" t="s">
         <v>17</v>
@@ -3888,13 +4577,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B81" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C81" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D81" t="s">
         <v>17</v>
@@ -3902,13 +4591,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B82" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C82" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D82" t="s">
         <v>17</v>
@@ -3916,13 +4605,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B83" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C83" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
@@ -3930,13 +4619,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B84" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C84" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
@@ -3944,13 +4633,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B85" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C85" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D85" t="s">
         <v>17</v>
@@ -3958,13 +4647,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B86" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C86" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D86" t="s">
         <v>17</v>
@@ -3972,13 +4661,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B87" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C87" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
@@ -3986,13 +4675,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B88" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C88" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
@@ -4000,13 +4689,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B89" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C89" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D89" t="s">
         <v>17</v>
@@ -4014,13 +4703,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B90" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C90" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D90" t="s">
         <v>17</v>
@@ -4028,13 +4717,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B91" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C91" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
@@ -4042,13 +4731,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B92" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C92" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D92" t="s">
         <v>17</v>
@@ -4056,13 +4745,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B93" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C93" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D93" t="s">
         <v>17</v>
@@ -4070,13 +4759,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B94" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C94" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D94" t="s">
         <v>17</v>
@@ -4084,13 +4773,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B95" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C95" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
@@ -4098,13 +4787,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B96" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C96" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D96" t="s">
         <v>17</v>
@@ -4112,13 +4801,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B97" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C97" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D97" t="s">
         <v>17</v>
@@ -4126,13 +4815,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B98" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C98" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D98" t="s">
         <v>17</v>
@@ -4140,13 +4829,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B99" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C99" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
@@ -4154,13 +4843,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B100" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C100" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D100" t="s">
         <v>17</v>
@@ -4168,13 +4857,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B101" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C101" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D101" t="s">
         <v>17</v>
@@ -4182,13 +4871,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B102" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C102" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
@@ -4196,13 +4885,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B103" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C103" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
@@ -4210,13 +4899,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B104" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C104" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D104" t="s">
         <v>17</v>
@@ -4224,13 +4913,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B105" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C105" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D105" t="s">
         <v>17</v>
@@ -4238,13 +4927,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B106" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C106" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D106" t="s">
         <v>17</v>
@@ -4252,13 +4941,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B107" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C107" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D107" t="s">
         <v>17</v>
@@ -4266,13 +4955,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B108" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C108" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
@@ -4280,13 +4969,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B109" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C109" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
@@ -4294,13 +4983,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B110" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C110" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D110" t="s">
         <v>17</v>
@@ -4308,13 +4997,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B111" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="C111" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D111" t="s">
         <v>17</v>
@@ -4322,13 +5011,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B112" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C112" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D112" t="s">
         <v>17</v>
@@ -4336,13 +5025,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B113" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C113" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D113" t="s">
         <v>17</v>
@@ -4350,13 +5039,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B114" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C114" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
@@ -4364,13 +5053,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B115" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C115" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D115" t="s">
         <v>17</v>
@@ -4378,13 +5067,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B116" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C116" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D116" t="s">
         <v>17</v>
@@ -4392,13 +5081,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B117" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C117" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D117" t="s">
         <v>17</v>
@@ -4406,13 +5095,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B118" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C118" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
@@ -4420,13 +5109,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B119" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="C119" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
@@ -4434,13 +5123,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B120" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C120" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D120" t="s">
         <v>17</v>
@@ -4448,13 +5137,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B121" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C121" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D121" t="s">
         <v>17</v>
@@ -4462,13 +5151,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B122" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C122" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D122" t="s">
         <v>17</v>
@@ -4476,13 +5165,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B123" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C123" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D123" t="s">
         <v>17</v>
@@ -4490,13 +5179,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B124" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C124" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D124" t="s">
         <v>17</v>
@@ -4504,13 +5193,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B125" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C125" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D125" t="s">
         <v>17</v>
@@ -4518,13 +5207,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B126" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C126" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D126" t="s">
         <v>17</v>
@@ -4532,10 +5221,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B127" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="C127" t="s">
         <v>415</v>
@@ -4546,13 +5235,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B128" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="C128" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D128" t="s">
         <v>17</v>
@@ -4560,10 +5249,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B129" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="C129" t="s">
         <v>415</v>
@@ -4574,13 +5263,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B130" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C130" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D130" t="s">
         <v>17</v>
@@ -4588,10 +5277,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B131" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C131" t="s">
         <v>415</v>
@@ -4602,13 +5291,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B132" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="C132" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="D132" t="s">
         <v>17</v>
@@ -4616,13 +5305,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B133" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C133" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
@@ -4630,13 +5319,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B134" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C134" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D134" t="s">
         <v>17</v>
@@ -4644,13 +5333,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B135" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C135" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D135" t="s">
         <v>17</v>
@@ -4658,13 +5347,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B136" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C136" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D136" t="s">
         <v>17</v>
@@ -4672,13 +5361,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B137" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C137" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="D137" t="s">
         <v>17</v>
@@ -4686,10 +5375,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B138" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C138" t="s">
         <v>415</v>
@@ -4700,10 +5389,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B139" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C139" t="s">
         <v>415</v>
@@ -4714,13 +5403,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B140" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C140" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D140" t="s">
         <v>17</v>
@@ -4728,10 +5417,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B141" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="C141" t="s">
         <v>415</v>
@@ -4742,10 +5431,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B142" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C142" t="s">
         <v>415</v>
@@ -4756,10 +5445,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B143" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="C143" t="s">
         <v>415</v>
@@ -4770,10 +5459,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="B144" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="C144" t="s">
         <v>415</v>
@@ -4784,13 +5473,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B145" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="C145" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D145" t="s">
         <v>17</v>
@@ -4798,10 +5487,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B146" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C146" t="s">
         <v>415</v>
@@ -6014,7 +6703,7 @@
         <v>249</v>
       </c>
       <c r="E232" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6073,7 +6762,7 @@
         <v>249</v>
       </c>
       <c r="E236" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6132,7 +6821,7 @@
         <v>249</v>
       </c>
       <c r="E240" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6191,7 +6880,7 @@
         <v>249</v>
       </c>
       <c r="E244" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -6300,7 +6989,7 @@
         <v>420</v>
       </c>
       <c r="C252" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D252" t="s">
         <v>412</v>
@@ -6308,13 +6997,13 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
+        <v>421</v>
+      </c>
+      <c r="B253" t="s">
         <v>422</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" t="s">
         <v>423</v>
-      </c>
-      <c r="C253" t="s">
-        <v>424</v>
       </c>
       <c r="D253" t="s">
         <v>412</v>
@@ -6322,13 +7011,13 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
+        <v>424</v>
+      </c>
+      <c r="B254" t="s">
         <v>425</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>426</v>
-      </c>
-      <c r="C254" t="s">
-        <v>427</v>
       </c>
       <c r="D254" t="s">
         <v>412</v>
@@ -6336,13 +7025,13 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
+        <v>427</v>
+      </c>
+      <c r="B255" t="s">
         <v>428</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>429</v>
-      </c>
-      <c r="C255" t="s">
-        <v>415</v>
       </c>
       <c r="D255" t="s">
         <v>412</v>
@@ -6355,9 +7044,6 @@
       <c r="B256" t="s">
         <v>431</v>
       </c>
-      <c r="C256" t="s">
-        <v>415</v>
-      </c>
       <c r="D256" t="s">
         <v>412</v>
       </c>
@@ -6369,9 +7055,6 @@
       <c r="B257" t="s">
         <v>433</v>
       </c>
-      <c r="C257" t="s">
-        <v>415</v>
-      </c>
       <c r="D257" t="s">
         <v>412</v>
       </c>
@@ -6383,9 +7066,6 @@
       <c r="B258" t="s">
         <v>435</v>
       </c>
-      <c r="C258" t="s">
-        <v>415</v>
-      </c>
       <c r="D258" t="s">
         <v>412</v>
       </c>
@@ -6397,22 +7077,19 @@
       <c r="B259" t="s">
         <v>437</v>
       </c>
-      <c r="C259" t="s">
-        <v>438</v>
-      </c>
       <c r="D259" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
+        <v>438</v>
+      </c>
+      <c r="B260" t="s">
         <v>439</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" t="s">
         <v>440</v>
-      </c>
-      <c r="C260" t="s">
-        <v>441</v>
       </c>
       <c r="D260" t="s">
         <v>412</v>
@@ -6420,13 +7097,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
+        <v>441</v>
+      </c>
+      <c r="B261" t="s">
         <v>442</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C261" t="s">
         <v>443</v>
-      </c>
-      <c r="C261" t="s">
-        <v>444</v>
       </c>
       <c r="D261" t="s">
         <v>412</v>
@@ -6434,13 +7111,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
+        <v>444</v>
+      </c>
+      <c r="B262" t="s">
         <v>445</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>446</v>
-      </c>
-      <c r="C262" t="s">
-        <v>447</v>
       </c>
       <c r="D262" t="s">
         <v>412</v>
@@ -6448,13 +7125,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
+        <v>447</v>
+      </c>
+      <c r="B263" t="s">
         <v>448</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
         <v>449</v>
-      </c>
-      <c r="C263" t="s">
-        <v>450</v>
       </c>
       <c r="D263" t="s">
         <v>412</v>
@@ -6462,13 +7139,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
+        <v>450</v>
+      </c>
+      <c r="B264" t="s">
         <v>451</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
         <v>452</v>
-      </c>
-      <c r="C264" t="s">
-        <v>453</v>
       </c>
       <c r="D264" t="s">
         <v>412</v>
@@ -6476,13 +7153,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
+        <v>453</v>
+      </c>
+      <c r="B265" t="s">
         <v>454</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
         <v>455</v>
-      </c>
-      <c r="C265" t="s">
-        <v>456</v>
       </c>
       <c r="D265" t="s">
         <v>412</v>
@@ -6490,13 +7167,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" t="s">
+        <v>456</v>
+      </c>
+      <c r="B266" t="s">
         <v>457</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C266" t="s">
         <v>458</v>
-      </c>
-      <c r="C266" t="s">
-        <v>459</v>
       </c>
       <c r="D266" t="s">
         <v>412</v>
@@ -6504,13 +7181,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" t="s">
+        <v>459</v>
+      </c>
+      <c r="B267" t="s">
         <v>460</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
         <v>461</v>
-      </c>
-      <c r="C267" t="s">
-        <v>462</v>
       </c>
       <c r="D267" t="s">
         <v>412</v>
@@ -6518,13 +7195,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" t="s">
+        <v>462</v>
+      </c>
+      <c r="B268" t="s">
         <v>463</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>464</v>
-      </c>
-      <c r="C268" t="s">
-        <v>465</v>
       </c>
       <c r="D268" t="s">
         <v>412</v>
@@ -6532,13 +7209,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" t="s">
+        <v>465</v>
+      </c>
+      <c r="B269" t="s">
         <v>466</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" t="s">
         <v>467</v>
-      </c>
-      <c r="C269" t="s">
-        <v>468</v>
       </c>
       <c r="D269" t="s">
         <v>412</v>
@@ -6546,13 +7223,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" t="s">
+        <v>468</v>
+      </c>
+      <c r="B270" t="s">
         <v>469</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" t="s">
         <v>470</v>
-      </c>
-      <c r="C270" t="s">
-        <v>471</v>
       </c>
       <c r="D270" t="s">
         <v>412</v>
@@ -6560,13 +7237,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" t="s">
+        <v>471</v>
+      </c>
+      <c r="B271" t="s">
         <v>472</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
         <v>473</v>
-      </c>
-      <c r="C271" t="s">
-        <v>474</v>
       </c>
       <c r="D271" t="s">
         <v>412</v>
@@ -6574,27 +7251,33 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" t="s">
+        <v>474</v>
+      </c>
+      <c r="B272" t="s">
         <v>475</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
         <v>476</v>
-      </c>
-      <c r="C272" t="s">
-        <v>477</v>
       </c>
       <c r="D272" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B273" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>478</v>
+      </c>
+      <c r="C273" t="s">
+        <v>479</v>
+      </c>
+      <c r="D273" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" t="s">
         <v>484</v>
       </c>
@@ -6602,7 +7285,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" t="s">
         <v>486</v>
       </c>
@@ -6610,7 +7293,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" t="s">
         <v>488</v>
       </c>
@@ -6618,12 +7301,163 @@
         <v>489</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" t="s">
         <v>490</v>
       </c>
       <c r="B277" t="s">
         <v>491</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A278" t="s">
+        <v>492</v>
+      </c>
+      <c r="B278" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A279" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="B279" t="s">
+        <v>982</v>
+      </c>
+      <c r="C279" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A280" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B280" t="s">
+        <v>983</v>
+      </c>
+      <c r="C280" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A281" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="B281" t="s">
+        <v>984</v>
+      </c>
+      <c r="C281" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A282" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="B282" t="s">
+        <v>985</v>
+      </c>
+      <c r="C282" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A283" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="B283" t="s">
+        <v>986</v>
+      </c>
+      <c r="C283" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A284" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="B284" t="s">
+        <v>987</v>
+      </c>
+      <c r="C284" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A285" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="B285" t="s">
+        <v>988</v>
+      </c>
+      <c r="C285" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A286" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="B286" t="s">
+        <v>989</v>
+      </c>
+      <c r="C286" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A287" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="B287" t="s">
+        <v>990</v>
+      </c>
+      <c r="C287" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A288" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B288" t="s">
+        <v>991</v>
+      </c>
+      <c r="C288" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A289" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="B289" t="s">
+        <v>992</v>
+      </c>
+      <c r="C289" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A290" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="B290" t="s">
+        <v>993</v>
+      </c>
+      <c r="C290" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A291" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B291" t="s">
+        <v>994</v>
+      </c>
+      <c r="C291" t="s">
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -6635,7 +7469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39672019-BAE3-4CD3-809B-2E3FC278A14C}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A91" sqref="A91:E92"/>
     </sheetView>
   </sheetViews>
@@ -7663,18 +8497,1030 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B91" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
+        <v>482</v>
+      </c>
+      <c r="B92" t="s">
+        <v>483</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FD5493-65C5-4573-85C0-C85F7CA4AAD3}">
+  <dimension ref="A1:C114"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="34.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26171875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="C22" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>876</v>
+      </c>
+      <c r="C23" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C24" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>330</v>
+      </c>
+      <c r="B26" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B32" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>406</v>
+      </c>
+      <c r="B42" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B92" t="s">
-        <v>481</v>
+      <c r="B43" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="C45" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="4" t="s">
+        <v>786</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="C47" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>901</v>
+      </c>
+      <c r="C48" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C49" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="C50" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>904</v>
+      </c>
+      <c r="C51" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C52" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="C53" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="C54" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="C55" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="4" t="s">
+        <v>798</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="4" t="s">
+        <v>806</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="4" t="s">
+        <v>824</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="4" t="s">
+        <v>825</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="4" t="s">
+        <v>828</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="4" t="s">
+        <v>829</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="C92" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="C93" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="C94" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="4" t="s">
+        <v>834</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="C95" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="4" t="s">
+        <v>835</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="C96" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="4" t="s">
+        <v>837</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="C98" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="4" t="s">
+        <v>838</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C99" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="4" t="s">
+        <v>839</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="C101" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="C102" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="C105" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="C106" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="C107" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="C108" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="C109" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="4" t="s">
+        <v>852</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="4" t="s">
+        <v>853</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>967</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Original_Data/A&M_dataset_DICTIONARY.xlsx
+++ b/Data/Original_Data/A&M_dataset_DICTIONARY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuire\PycharmProjects\IronDeficiency\Data\Original_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16F7562-B69F-492D-A8AC-4F0DCA627ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8BF271-AAC0-4AE1-AD7D-A447758CD9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{0B332FA3-0493-4E6E-8C24-E6AD7B7EBA00}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="1209">
   <si>
     <t>ElementName</t>
   </si>
@@ -2960,9 +2960,6 @@
     <t>NEURO_DIGIT_Sequencing_residual</t>
   </si>
   <si>
-    <t>NEURO_DDT_kvalue_residual</t>
-  </si>
-  <si>
     <t>Hemoccue_Hb_residual</t>
   </si>
   <si>
@@ -3050,17 +3047,653 @@
     <t>0-Not Administered; 1-Administered, No issues; 7-Administered, not valid; 8-Administered with issues; 9-Could not complete;</t>
   </si>
   <si>
+    <t>Vol_eTIV_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Thalamus_L_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Caudate_L_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Putamen_L_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Pallidum_L_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Hippocampus_L_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Amygdala_L_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Accumbens_L_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Thalamus_R_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Caudate_R_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Putamen_R_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Pallidum_R_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Hippocampus_R_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Amygdala_R_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Accumbens_R_RAW</t>
+  </si>
+  <si>
+    <t>Vol_Thalamus_L_residual</t>
+  </si>
+  <si>
+    <t>Vol_Caudate_L_residual</t>
+  </si>
+  <si>
+    <t>Vol_Putamen_L_residual</t>
+  </si>
+  <si>
+    <t>Vol_Pallidum_L_residual</t>
+  </si>
+  <si>
+    <t>Vol_Hippocampus_L_residual</t>
+  </si>
+  <si>
+    <t>Vol_Amygdala_L_residual</t>
+  </si>
+  <si>
+    <t>Vol_Accumbens_L_residual</t>
+  </si>
+  <si>
+    <t>Vol_Thalamus_R_residual</t>
+  </si>
+  <si>
+    <t>Vol_Caudate_R_residual</t>
+  </si>
+  <si>
+    <t>Vol_Putamen_R_residual</t>
+  </si>
+  <si>
+    <t>Vol_Pallidum_R_residual</t>
+  </si>
+  <si>
+    <t>Vol_Hippocampus_R_residual</t>
+  </si>
+  <si>
+    <t>Vol_Amygdala_R_residual</t>
+  </si>
+  <si>
+    <t>Vol_Accumbens_R_residual</t>
+  </si>
+  <si>
+    <t>Vol_eTIV_residual</t>
+  </si>
+  <si>
+    <t>Vol_Thalamus_L_RAW_norm</t>
+  </si>
+  <si>
+    <t>Vol_Caudate_L_RAW_norm</t>
+  </si>
+  <si>
+    <t>Vol_Putamen_L_RAW_norm</t>
+  </si>
+  <si>
+    <t>Vol_Pallidum_L_RAW_norm</t>
+  </si>
+  <si>
+    <t>Vol_Hippocampus_L_RAW_norm</t>
+  </si>
+  <si>
+    <t>Vol_Amygdala_L_RAW_norm</t>
+  </si>
+  <si>
+    <t>Vol_Accumbens_L_RAW_norm</t>
+  </si>
+  <si>
+    <t>Vol_Thalamus_R_RAW_norm</t>
+  </si>
+  <si>
+    <t>Vol_Caudate_R_RAW_norm</t>
+  </si>
+  <si>
+    <t>Vol_Putamen_R_RAW_norm</t>
+  </si>
+  <si>
+    <t>Vol_Pallidum_R_RAW_norm</t>
+  </si>
+  <si>
+    <t>Vol_Hippocampus_R_RAW_norm</t>
+  </si>
+  <si>
+    <t>Vol_Amygdala_R_RAW_norm</t>
+  </si>
+  <si>
+    <t>Vol_Accumbens_R_RAW_norm</t>
+  </si>
+  <si>
+    <t>Vol_Thalamus_RAW_ratio</t>
+  </si>
+  <si>
+    <t>Vol_Caudate_RAW_ratio</t>
+  </si>
+  <si>
+    <t>Vol_Putamen_RAW_ratio</t>
+  </si>
+  <si>
+    <t>Vol_Pallidum_RAW_ratio</t>
+  </si>
+  <si>
+    <t>Vol_Hippocampus_RAW_ratio</t>
+  </si>
+  <si>
+    <t>Vol_Amygdala_RAW_ratio</t>
+  </si>
+  <si>
+    <t>Vol_Accumbens_RAW_ratio</t>
+  </si>
+  <si>
+    <t>Vol_Thalamus_L_resid_norm</t>
+  </si>
+  <si>
+    <t>Vol_Caudate_L_resid_norm</t>
+  </si>
+  <si>
+    <t>Vol_Putamen_L_resid_norm</t>
+  </si>
+  <si>
+    <t>Vol_Pallidum_L_resid_norm</t>
+  </si>
+  <si>
+    <t>Vol_Hippocampus_L_resid_norm</t>
+  </si>
+  <si>
+    <t>Vol_Amygdala_L_resid_norm</t>
+  </si>
+  <si>
+    <t>Vol_Accumbens_L_resid_norm</t>
+  </si>
+  <si>
+    <t>Vol_Thalamus_R_resid_norm</t>
+  </si>
+  <si>
+    <t>Vol_Caudate_R_resid_norm</t>
+  </si>
+  <si>
+    <t>Vol_Putamen_R_resid_norm</t>
+  </si>
+  <si>
+    <t>Vol_Pallidum_R_resid_norm</t>
+  </si>
+  <si>
+    <t>Vol_Hippocampus_R_resid_norm</t>
+  </si>
+  <si>
+    <t>Vol_Amygdala_R_resid_norm</t>
+  </si>
+  <si>
+    <t>Vol_Accumbens_R_resid_norm</t>
+  </si>
+  <si>
+    <t>Vol_Thalamus_res_ratio</t>
+  </si>
+  <si>
+    <t>Vol_Caudate_res_ratio</t>
+  </si>
+  <si>
+    <t>Vol_Putamen_res_ratio</t>
+  </si>
+  <si>
+    <t>Vol_Pallidum_res_ratio</t>
+  </si>
+  <si>
+    <t>Vol_Hippocampus_res_ratio</t>
+  </si>
+  <si>
+    <t>Vol_Amygdala_res_ratio</t>
+  </si>
+  <si>
+    <t>Vol_Accumbens_res_ratio</t>
+  </si>
+  <si>
+    <t>Raw eTIV value</t>
+  </si>
+  <si>
+    <t>Raw Left Thalamus value</t>
+  </si>
+  <si>
+    <t>Raw Left Caudate value</t>
+  </si>
+  <si>
+    <t>Raw Left Putamen value</t>
+  </si>
+  <si>
+    <t>Raw Left Pallidum value</t>
+  </si>
+  <si>
+    <t>Raw Left Hippocampus value</t>
+  </si>
+  <si>
+    <t>Raw Left Amygdala value</t>
+  </si>
+  <si>
+    <t>Raw Left Accumbens value</t>
+  </si>
+  <si>
+    <t>Raw Right Thalamus value</t>
+  </si>
+  <si>
+    <t>Raw Right Caudate value</t>
+  </si>
+  <si>
+    <t>Raw Right Putamen value</t>
+  </si>
+  <si>
+    <t>Raw Right Pallidum value</t>
+  </si>
+  <si>
+    <t>Raw Right Hippocampus value</t>
+  </si>
+  <si>
+    <t>Raw Right Amygdala value</t>
+  </si>
+  <si>
+    <t>Raw Right Accumbens value</t>
+  </si>
+  <si>
+    <t>eTIV residual</t>
+  </si>
+  <si>
+    <t>Left Thalamus residual</t>
+  </si>
+  <si>
+    <t>Left Caudate residual</t>
+  </si>
+  <si>
+    <t>Left Putamen residual</t>
+  </si>
+  <si>
+    <t>Left Pallidum residual</t>
+  </si>
+  <si>
+    <t>Left Hippocampus residual</t>
+  </si>
+  <si>
+    <t>Left Amygdala residual</t>
+  </si>
+  <si>
+    <t>Left Accumbens residual</t>
+  </si>
+  <si>
+    <t>Right Thalamus residual</t>
+  </si>
+  <si>
+    <t>Right Caudate residual</t>
+  </si>
+  <si>
+    <t>Right Putamen residual</t>
+  </si>
+  <si>
+    <t>Right Pallidum residual</t>
+  </si>
+  <si>
+    <t>Right Hippocampus residual</t>
+  </si>
+  <si>
+    <t>Right Amygdala residual</t>
+  </si>
+  <si>
+    <t>Right Accumbens residual</t>
+  </si>
+  <si>
+    <t>Raw normalized Left Thalamus</t>
+  </si>
+  <si>
+    <t>Raw Left Thalamus/eTIV</t>
+  </si>
+  <si>
+    <t>Raw normalized Left Caudate</t>
+  </si>
+  <si>
+    <t>Raw Left Caudate/eTIV</t>
+  </si>
+  <si>
+    <t>Raw normalized Left Putamen</t>
+  </si>
+  <si>
+    <t>Raw Left Putamen/eTIV</t>
+  </si>
+  <si>
+    <t>Raw normalized Left Pallidum</t>
+  </si>
+  <si>
+    <t>Raw Left Pallidum/eTIV</t>
+  </si>
+  <si>
+    <t>Raw normalized Left Hippocampus</t>
+  </si>
+  <si>
+    <t>Raw Left Hippocampus/eTIV</t>
+  </si>
+  <si>
+    <t>Raw normalized Left Amygdala</t>
+  </si>
+  <si>
+    <t>Raw Left Amygdala/eTIV</t>
+  </si>
+  <si>
+    <t>Raw normalized Left Accumbens</t>
+  </si>
+  <si>
+    <t>Raw Left Accumbens/eTIV</t>
+  </si>
+  <si>
+    <t>Raw normalized Right Thalamus</t>
+  </si>
+  <si>
+    <t>Raw Right Thalamus/eTIV</t>
+  </si>
+  <si>
+    <t>Raw normalized Right Caudate</t>
+  </si>
+  <si>
+    <t>Raw Right Caudate/eTIV</t>
+  </si>
+  <si>
+    <t>Raw normalized Right Putamen</t>
+  </si>
+  <si>
+    <t>Raw Right Putamen/eTIV</t>
+  </si>
+  <si>
+    <t>Raw normalized Right Pallidum</t>
+  </si>
+  <si>
+    <t>Raw Right Pallidum/eTIV</t>
+  </si>
+  <si>
+    <t>Raw normalized Right Hippocampus</t>
+  </si>
+  <si>
+    <t>Raw Right Hippocampus/eTIV</t>
+  </si>
+  <si>
+    <t>Raw normalized Right Amygdala</t>
+  </si>
+  <si>
+    <t>Raw Right Amygdala/eTIV</t>
+  </si>
+  <si>
+    <t>Raw normalized Right Accumbens</t>
+  </si>
+  <si>
+    <t>Raw Right Accumbens/eTIV</t>
+  </si>
+  <si>
+    <t>Raw Thalamus ratio</t>
+  </si>
+  <si>
+    <t>Raw Caudate ratio</t>
+  </si>
+  <si>
+    <t>Raw Putamen ratio</t>
+  </si>
+  <si>
+    <t>Raw Pallidum ratio</t>
+  </si>
+  <si>
+    <t>Raw Hippocampus ratio</t>
+  </si>
+  <si>
+    <t>Raw Amygdala ratio</t>
+  </si>
+  <si>
+    <t>Raw Accumbens ratio</t>
+  </si>
+  <si>
+    <t>Sum of raw right and left Thalamus/raw eTIV</t>
+  </si>
+  <si>
+    <t>Sum of raw right and left Caudate/raw eTIV</t>
+  </si>
+  <si>
+    <t>Sum of raw right and left Putamen/raw eTIV</t>
+  </si>
+  <si>
+    <t>Sum of raw right and left Pallidum/raw eTIV</t>
+  </si>
+  <si>
+    <t>Sum of raw right and left Hippocampus/raw eTIV</t>
+  </si>
+  <si>
+    <t>Sum of raw right and left Amygdala/raw eTIV</t>
+  </si>
+  <si>
+    <t>Sum of raw right and left Accumbens/raw eTIV</t>
+  </si>
+  <si>
+    <t>Left Thalamus residual/eTIV residual</t>
+  </si>
+  <si>
+    <t>Left Caudate residual/eTIV residual</t>
+  </si>
+  <si>
+    <t>Left Putamen residual/eTIV residual</t>
+  </si>
+  <si>
+    <t>Left Pallidum residual/eTIV residual</t>
+  </si>
+  <si>
+    <t>Left Hippocampus residual/eTIV residual</t>
+  </si>
+  <si>
+    <t>Left Amygdala residual/eTIV residual</t>
+  </si>
+  <si>
+    <t>Left Accumbens residual/eTIV residual</t>
+  </si>
+  <si>
+    <t>Right Thalamus residual/eTIV residual</t>
+  </si>
+  <si>
+    <t>Right Caudate residual/eTIV residual</t>
+  </si>
+  <si>
+    <t>Right Putamen residual/eTIV residual</t>
+  </si>
+  <si>
+    <t>Right Pallidum residual/eTIV residual</t>
+  </si>
+  <si>
+    <t>Right Hippocampus residual/eTIV residual</t>
+  </si>
+  <si>
+    <t>Right Amygdala residual/eTIV residual</t>
+  </si>
+  <si>
+    <t>Right Accumbens residual/eTIV residual</t>
+  </si>
+  <si>
+    <t>Sum of right and left Thalamus residuals/eTIV residual</t>
+  </si>
+  <si>
+    <t>Sum of right and left Caudate residuals/eTIV residual</t>
+  </si>
+  <si>
+    <t>Sum of right and left Putamen residuals/eTIV residual</t>
+  </si>
+  <si>
+    <t>Sum of right and left Pallidum residuals/eTIV residual</t>
+  </si>
+  <si>
+    <t>Sum of right and left Hippocampus residuals/eTIV residual</t>
+  </si>
+  <si>
+    <t>Sum of right and left Amygdala residuals/eTIV residual</t>
+  </si>
+  <si>
+    <t>Sum of right and left Accumbens residuals/eTIV residual</t>
+  </si>
+  <si>
+    <t>Left Thalamus normalized residual</t>
+  </si>
+  <si>
+    <t>Left Caudate normalized residual</t>
+  </si>
+  <si>
+    <t>Left Putamen normalized residual</t>
+  </si>
+  <si>
+    <t>Left Pallidum normalized residual</t>
+  </si>
+  <si>
+    <t>Left Hippocampus normalized residual</t>
+  </si>
+  <si>
+    <t>Left Amygdala normalized residual</t>
+  </si>
+  <si>
+    <t>Left Accumbens normalized residual</t>
+  </si>
+  <si>
+    <t>Right Thalamus normalized residual</t>
+  </si>
+  <si>
+    <t>Right Caudate normalized residual</t>
+  </si>
+  <si>
+    <t>Right Putamen normalized residual</t>
+  </si>
+  <si>
+    <t>Right Pallidum normalized residual</t>
+  </si>
+  <si>
+    <t>Right Hippocampus normalized residual</t>
+  </si>
+  <si>
+    <t>Right Amygdala normalized residual</t>
+  </si>
+  <si>
+    <t>Right Accumbens normalized residual</t>
+  </si>
+  <si>
+    <t>Thalamus residual ratio</t>
+  </si>
+  <si>
+    <t>Caudate residual ratio</t>
+  </si>
+  <si>
+    <t>Putamen residual ratio</t>
+  </si>
+  <si>
+    <t>Pallidum residual ratio</t>
+  </si>
+  <si>
+    <t>Hippocampus residual ratio</t>
+  </si>
+  <si>
+    <t>Amygdala residual ratio</t>
+  </si>
+  <si>
+    <t>Accumbens residual ratio</t>
+  </si>
+  <si>
+    <t>RAVLT_ListA_Immed_Re_T1_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_ListB_Immed_Re_T1_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_ListA_Delay_Re_T1_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_ListA_Delay_Re_T2_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_std_total_learn_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_Learning_Ratio_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_T1T5_Difference_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_Early_Learning_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_Late_Learning_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_Pro_Interfere_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_Retro_Interfere_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_Retention_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_Retrieval_Effic_residual</t>
+  </si>
+  <si>
+    <t>RAVLT_ListA_Immed_Recall_Trial1</t>
+  </si>
+  <si>
+    <t>RAVLT_ListB_Immed_Recall_Trial1</t>
+  </si>
+  <si>
+    <t>RAVLT_ListA_Delay_Recall_Trial1</t>
+  </si>
+  <si>
+    <t>RAVLT_ListA_Delay_Recall_Trial2</t>
+  </si>
+  <si>
+    <t>RAVLT_std_total_learn</t>
+  </si>
+  <si>
+    <t>RAVLT_Learning_Ratio</t>
+  </si>
+  <si>
+    <t>RAVLT_T1T5_Difference</t>
+  </si>
+  <si>
+    <t>RAVLT_Early_Learning</t>
+  </si>
+  <si>
+    <t>RAVLT_Late_Learning</t>
+  </si>
+  <si>
+    <t>RAVLT_Proactive_Interfere</t>
+  </si>
+  <si>
+    <t>RAVLT_Retroactive_Interfere</t>
+  </si>
+  <si>
+    <t>RAVLT_Retention</t>
+  </si>
+  <si>
+    <t>RAVLT_Retrieval_Efficiency</t>
+  </si>
+  <si>
     <t>r</t>
   </si>
   <si>
-    <t>m</t>
+    <t>NEURO_DDT_kvalue_log_residual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3086,6 +3719,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3135,15 +3775,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3458,16 +4100,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354BCA59-EB3E-4CCE-A235-F8D5EE799E10}">
-  <dimension ref="A1:E291"/>
+  <dimension ref="A1:E363"/>
   <sheetViews>
-    <sheetView topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="C273" sqref="C273"/>
+    <sheetView topLeftCell="A354" workbookViewId="0">
+      <selection activeCell="E345" sqref="E345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="32.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.68359375" customWidth="1"/>
+    <col min="2" max="2" width="33.68359375" customWidth="1"/>
     <col min="3" max="3" width="60.15625" customWidth="1"/>
     <col min="4" max="4" width="16.26171875" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
@@ -3491,7 +4133,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
@@ -3499,7 +4141,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
@@ -3507,7 +4149,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -3521,7 +4163,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
@@ -3532,7 +4174,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
@@ -7319,145 +7961,877 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="3" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B279" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C279" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="3" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B280" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C280" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B281" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C281" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="3" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B282" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C282" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B283" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C283" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="3" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B284" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C284" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B285" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C285" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="3" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B286" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C286" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="3" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B287" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C287" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="3" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B288" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C288" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B289" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C289" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="3" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B290" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="C290" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B291" t="s">
+        <v>993</v>
+      </c>
+      <c r="C291" t="s">
         <v>994</v>
       </c>
-      <c r="C291" t="s">
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A292" s="4" t="s">
         <v>995</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C292" s="4"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A293" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C293" s="4"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A294" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C294" s="4"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A295" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C295" s="4"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A296" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C296" s="4"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A297" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C297" s="4"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A298" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C298" s="4"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A299" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C299" s="4"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A300" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C300" s="4"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A301" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C301" s="4"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A302" s="4" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C302" s="4"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A303" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C303" s="4"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A304" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C304" s="4"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A305" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C305" s="4"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A306" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C306" s="4"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A307" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C307" s="4"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A308" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C308" s="4"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A309" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C309" s="4"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A310" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C310" s="4"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A311" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C311" s="4"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A312" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C312" s="4"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A313" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C313" s="4"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A314" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C314" s="4"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A315" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C315" s="4"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A316" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C316" s="4"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A317" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C317" s="4"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A318" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C318" s="4"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A319" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C319" s="4"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A320" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C320" s="4"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A321" s="4" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C321" s="4"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A322" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A323" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A324" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A325" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A326" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A327" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A328" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A329" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A330" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A331" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A332" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A333" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A334" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A335" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A336" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A337" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A338" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A339" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A340" s="4" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A341" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A342" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A343" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A344" s="5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A345" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A346" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A347" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A348" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A349" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A350" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A351" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A352" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A353" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A354" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A355" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A356" s="5" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A357" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A358" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A359" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A360" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A361" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A362" s="4" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A363" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>1159</v>
       </c>
     </row>
   </sheetData>
@@ -7469,7 +8843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39672019-BAE3-4CD3-809B-2E3FC278A14C}">
   <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="A91" sqref="A91:E92"/>
     </sheetView>
   </sheetViews>
@@ -8518,10 +9892,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FD5493-65C5-4573-85C0-C85F7CA4AAD3}">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8535,70 +9909,70 @@
         <v>854</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>862</v>
       </c>
     </row>
@@ -8627,903 +10001,1089 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="4" t="s">
+      <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4" t="s">
+      <c r="A14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="4" t="s">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="4" t="s">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="C22" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="4" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>876</v>
       </c>
-      <c r="C23" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="4" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="C24" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
         <v>332</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
         <v>334</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" t="s">
         <v>336</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" t="s">
         <v>338</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" t="s">
         <v>340</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="4" t="s">
+      <c r="A33" t="s">
         <v>344</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="4" t="s">
+      <c r="A34" t="s">
         <v>346</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="4" t="s">
+      <c r="A35" t="s">
         <v>348</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
         <v>350</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" t="s">
         <v>889</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="4" t="s">
+      <c r="A37" t="s">
         <v>352</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="4" t="s">
+      <c r="A38" t="s">
         <v>395</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" t="s">
         <v>891</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="4" t="s">
+      <c r="A39" t="s">
         <v>398</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="4" t="s">
+      <c r="A40" t="s">
         <v>400</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>893</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="4" t="s">
+      <c r="A41" t="s">
         <v>403</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" t="s">
+      <c r="A42" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>895</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="6" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="6" t="s">
         <v>784</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="6" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="4" t="s">
+      <c r="A45" t="s">
         <v>785</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" t="s">
         <v>898</v>
       </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>902</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" t="s">
+        <v>790</v>
+      </c>
+      <c r="B50" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" t="s">
+        <v>791</v>
+      </c>
+      <c r="B51" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" t="s">
+        <v>792</v>
+      </c>
+      <c r="B52" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" t="s">
+        <v>793</v>
+      </c>
+      <c r="B53" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>794</v>
+      </c>
+      <c r="B54" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" t="s">
+        <v>795</v>
+      </c>
+      <c r="B55" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>945</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>946</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" t="s">
+        <v>836</v>
+      </c>
+      <c r="B97" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>951</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>952</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>954</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" t="s">
+        <v>844</v>
+      </c>
+      <c r="B105" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" t="s">
+        <v>845</v>
+      </c>
+      <c r="B106" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" t="s">
+        <v>846</v>
+      </c>
+      <c r="B107" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" t="s">
+        <v>847</v>
+      </c>
+      <c r="B108" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" t="s">
+        <v>848</v>
+      </c>
+      <c r="B109" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="7" t="s">
+        <v>996</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="7" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="4" t="s">
-        <v>786</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>900</v>
-      </c>
-      <c r="C47" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="C48" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="4" t="s">
-        <v>789</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>902</v>
-      </c>
-      <c r="C49" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="4" t="s">
-        <v>790</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="C50" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="4" t="s">
-        <v>791</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>904</v>
-      </c>
-      <c r="C51" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="4" t="s">
-        <v>792</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="C52" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="4" t="s">
-        <v>793</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="C53" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="4" t="s">
-        <v>794</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="C54" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="4" t="s">
-        <v>795</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="C55" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="4" t="s">
-        <v>796</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="4" t="s">
-        <v>797</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="4" t="s">
-        <v>800</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="4" t="s">
-        <v>801</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="4" t="s">
-        <v>821</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="4" t="s">
-        <v>825</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="4" t="s">
-        <v>826</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="4" t="s">
-        <v>827</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="4" t="s">
-        <v>828</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="4" t="s">
-        <v>829</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="4" t="s">
-        <v>830</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="4" t="s">
-        <v>831</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="C92" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="4" t="s">
-        <v>832</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>946</v>
-      </c>
-      <c r="C93" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A94" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>947</v>
-      </c>
-      <c r="C94" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="4" t="s">
-        <v>834</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="C95" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="4" t="s">
-        <v>835</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="C96" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="4" t="s">
-        <v>836</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98" s="4" t="s">
-        <v>837</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="C98" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>952</v>
-      </c>
-      <c r="C99" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="4" t="s">
-        <v>839</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="C101" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A102" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>955</v>
-      </c>
-      <c r="C102" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A103" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="4" t="s">
-        <v>843</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="C105" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>959</v>
-      </c>
-      <c r="C106" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A107" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="C107" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A108" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>961</v>
-      </c>
-      <c r="C108" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A109" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="C109" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A110" s="4" t="s">
-        <v>849</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A114" s="4" t="s">
-        <v>853</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>967</v>
+      <c r="B117" s="7" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="7" t="s">
+        <v>998</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="7" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>1193</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Original_Data/A&M_dataset_DICTIONARY.xlsx
+++ b/Data/Original_Data/A&M_dataset_DICTIONARY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zuire\PycharmProjects\IronDeficiency\Data\Original_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8BF271-AAC0-4AE1-AD7D-A447758CD9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281F4C37-482F-4729-9AF6-13518C50B7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{0B332FA3-0493-4E6E-8C24-E6AD7B7EBA00}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{0B332FA3-0493-4E6E-8C24-E6AD7B7EBA00}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset_Dictionary" sheetId="1" r:id="rId1"/>
@@ -3775,7 +3775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3785,7 +3785,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4102,8 +4103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354BCA59-EB3E-4CCE-A235-F8D5EE799E10}">
   <dimension ref="A1:E363"/>
   <sheetViews>
-    <sheetView topLeftCell="A354" workbookViewId="0">
-      <selection activeCell="E345" sqref="E345"/>
+    <sheetView tabSelected="1" topLeftCell="A339" workbookViewId="0">
+      <selection activeCell="C351" sqref="C351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8604,7 +8605,7 @@
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A343" s="5" t="s">
+      <c r="A343" s="8" t="s">
         <v>1046</v>
       </c>
       <c r="B343" s="4" t="s">
@@ -8615,7 +8616,7 @@
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A344" s="5" t="s">
+      <c r="A344" s="8" t="s">
         <v>1047</v>
       </c>
       <c r="B344" s="4" t="s">
@@ -8626,7 +8627,7 @@
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A345" s="5" t="s">
+      <c r="A345" s="8" t="s">
         <v>1048</v>
       </c>
       <c r="B345" s="4" t="s">
@@ -8637,7 +8638,7 @@
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A346" s="5" t="s">
+      <c r="A346" s="8" t="s">
         <v>1049</v>
       </c>
       <c r="B346" s="4" t="s">
@@ -8648,7 +8649,7 @@
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A347" s="5" t="s">
+      <c r="A347" s="8" t="s">
         <v>1050</v>
       </c>
       <c r="B347" s="4" t="s">
@@ -8659,7 +8660,7 @@
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A348" s="5" t="s">
+      <c r="A348" s="8" t="s">
         <v>1051</v>
       </c>
       <c r="B348" s="4" t="s">
@@ -8670,7 +8671,7 @@
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A349" s="5" t="s">
+      <c r="A349" s="8" t="s">
         <v>1052</v>
       </c>
       <c r="B349" s="4" t="s">
@@ -8681,7 +8682,7 @@
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A350" s="5" t="s">
+      <c r="A350" s="8" t="s">
         <v>1053</v>
       </c>
       <c r="B350" s="4" t="s">
@@ -8692,7 +8693,7 @@
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A351" s="5" t="s">
+      <c r="A351" s="8" t="s">
         <v>1054</v>
       </c>
       <c r="B351" s="4" t="s">
@@ -8703,7 +8704,7 @@
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A352" s="5" t="s">
+      <c r="A352" s="8" t="s">
         <v>1055</v>
       </c>
       <c r="B352" s="4" t="s">
@@ -8714,7 +8715,7 @@
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A353" s="5" t="s">
+      <c r="A353" s="8" t="s">
         <v>1056</v>
       </c>
       <c r="B353" s="4" t="s">
@@ -8725,7 +8726,7 @@
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A354" s="5" t="s">
+      <c r="A354" s="8" t="s">
         <v>1057</v>
       </c>
       <c r="B354" s="4" t="s">
@@ -8736,7 +8737,7 @@
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A355" s="5" t="s">
+      <c r="A355" s="8" t="s">
         <v>1058</v>
       </c>
       <c r="B355" s="4" t="s">
@@ -8747,7 +8748,7 @@
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A356" s="5" t="s">
+      <c r="A356" s="8" t="s">
         <v>1059</v>
       </c>
       <c r="B356" s="4" t="s">
@@ -9894,8 +9895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FD5493-65C5-4573-85C0-C85F7CA4AAD3}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
